--- a/data/trans_orig/Q46-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q46-Estudios-trans_orig.xlsx
@@ -693,7 +693,7 @@
         <v>75.29719140489745</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>74.82354135076586</v>
+        <v>74.82354135076585</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>76.50350345055034</v>
+        <v>76.59088268472615</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>78.3045453734568</v>
+        <v>78.41333760645603</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>78.82899400080137</v>
+        <v>78.85279255060516</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>78.91644525655494</v>
+        <v>78.97549485276448</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>68.03301380115509</v>
+        <v>67.93221424131207</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>70.97988983424399</v>
+        <v>70.93144959229548</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>70.89137207815952</v>
+        <v>70.84416934077834</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>70.38344528499832</v>
+        <v>70.44456193695905</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>71.95334541454393</v>
+        <v>71.92944843093238</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>74.25522866893125</v>
+        <v>74.32383836455587</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>74.56159042599243</v>
+        <v>74.67439213852327</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>74.13484125028204</v>
+        <v>74.14288038248699</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>78.15167625295364</v>
+        <v>78.11274025627598</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>80.05057782615897</v>
+        <v>80.11046247153079</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>80.98160349311334</v>
+        <v>81.01063368191046</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>81.33273676608157</v>
+        <v>81.35442834135308</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>69.29870437592716</v>
+        <v>69.25029022563551</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>72.4402479620977</v>
+        <v>72.33621211608842</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>72.71534884285501</v>
+        <v>72.67402755729451</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>71.86119016132687</v>
+        <v>71.94077477260325</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>72.97489880798834</v>
+        <v>73.02509000908034</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>75.51464126799046</v>
+        <v>75.48903006306655</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>76.03362300274893</v>
+        <v>76.05377304589825</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>75.51822184345713</v>
+        <v>75.50951430796979</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>66.47350894527101</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>67.53079585139272</v>
+        <v>67.53079585139274</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>71.11370298755786</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>77.5174942032005</v>
+        <v>77.47660916846914</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>79.36816098106749</v>
+        <v>79.37759237875358</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>79.2019214398284</v>
+        <v>79.28755609913635</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>79.70233453635495</v>
+        <v>79.74086948227766</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>63.1972603760182</v>
+        <v>63.10611567496733</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>65.78064704990115</v>
+        <v>65.69735006357269</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>65.86493193908439</v>
+        <v>65.87945834635174</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>66.97286927342947</v>
+        <v>67.04469592245935</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>70.62767048669426</v>
+        <v>70.61885725915815</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>73.06283814945385</v>
+        <v>73.03016994482215</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>72.83524415073225</v>
+        <v>72.80562956303105</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>73.56366983035522</v>
+        <v>73.61009335582905</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>78.50301617658198</v>
+        <v>78.52697648861992</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>80.49740417598711</v>
+        <v>80.50910752637343</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>80.42021807780506</v>
+        <v>80.47089610893009</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>81.0747352048438</v>
+        <v>81.10603584558616</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>64.34179438421421</v>
+        <v>64.37320788989634</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>66.99092118388188</v>
+        <v>66.95342750901075</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>67.06291858315534</v>
+        <v>67.08039355706856</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>68.07400552999312</v>
+        <v>68.09647988215525</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>71.53238284203465</v>
+        <v>71.58401894796859</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>74.01341236326456</v>
+        <v>74.00771229650047</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>73.80545013579525</v>
+        <v>73.76365860791947</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>74.52585472307153</v>
+        <v>74.52934208196622</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>80.54416620274331</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>80.55312034945804</v>
+        <v>80.55312034945803</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>62.97270132323574</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>78.02607311631817</v>
+        <v>78.03640703815256</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>79.87405096657358</v>
+        <v>79.89464243831705</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>79.44981728588095</v>
+        <v>79.44683968032901</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>79.48179717522011</v>
+        <v>79.56484851269452</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>61.97068881772711</v>
+        <v>61.94574404045088</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>62.92624025259624</v>
+        <v>63.05201991460976</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>63.73134600044061</v>
+        <v>63.65474295722517</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>65.44469227384425</v>
+        <v>65.46520358542548</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>70.80609718289969</v>
+        <v>70.73289118466298</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>71.64592086530611</v>
+        <v>71.71065730118053</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>71.70511446745616</v>
+        <v>71.67307007818204</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>72.54827830791341</v>
+        <v>72.5349177282461</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>80.00014541188523</v>
+        <v>80.09292472781706</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>82.24856129893676</v>
+        <v>82.27416689275732</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>81.74647830651655</v>
+        <v>81.9566668913873</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>81.69444508764111</v>
+        <v>81.62723637007409</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>64.05825053721888</v>
+        <v>64.05080650661583</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>65.17027870675354</v>
+        <v>65.15318585000689</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>65.77234353997966</v>
+        <v>65.67947187707088</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>67.0436524927881</v>
+        <v>67.09648276094514</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>72.49086935641537</v>
+        <v>72.566474566754</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>73.57734566949499</v>
+        <v>73.74834126895506</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>73.54419342281687</v>
+        <v>73.54294724052697</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>74.08152001865503</v>
+        <v>74.06815150575676</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>79.96690322219574</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80.38084671101262</v>
+        <v>80.38084671101265</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>65.5227406736708</v>
@@ -1101,7 +1101,7 @@
         <v>73.6888066604341</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>74.05323939648783</v>
+        <v>74.05323939648781</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>77.57112655957694</v>
+        <v>77.56815769755312</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>79.47101831425277</v>
+        <v>79.42300233937868</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>79.4571828531073</v>
+        <v>79.49561903754788</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>79.8453418662977</v>
+        <v>79.87502283377245</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>65.13308978391727</v>
+        <v>65.12768476324082</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>67.51701062778685</v>
+        <v>67.54989778012872</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>67.17417330951712</v>
+        <v>67.17465570578358</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>67.6635156884232</v>
+        <v>67.65349239584616</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>71.35705400340663</v>
+        <v>71.3476128708123</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>73.46347068842131</v>
+        <v>73.50610374265752</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>73.33877647079338</v>
+        <v>73.30534269945237</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>73.69122445700852</v>
+        <v>73.70874624015828</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>78.36863380534832</v>
+        <v>78.39353625924844</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>80.38103467445471</v>
+        <v>80.29209213657607</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>80.43311432879499</v>
+        <v>80.45019491295358</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>80.88294102566729</v>
+        <v>80.91004131116235</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>65.93496469423133</v>
+        <v>65.97110963585564</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>68.43448959742733</v>
+        <v>68.44327893387907</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>68.04101030908481</v>
+        <v>68.10770351766529</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>68.40719608646744</v>
+        <v>68.40793661123381</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>71.98769517139426</v>
+        <v>71.99903332504643</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>74.20049791829746</v>
+        <v>74.18113280698402</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>74.10590852794103</v>
+        <v>74.069411324177</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>74.4246518896462</v>
+        <v>74.4092844768205</v>
       </c>
     </row>
     <row r="16">
